--- a/04.Portfolio/요구사항_명세서_ver0.2.xlsx
+++ b/04.Portfolio/요구사항_명세서_ver0.2.xlsx
@@ -88,126 +88,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RQ-ID-000-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 우측 상단, 모바일 용 내비게이션 바를 ON/OFF하는 버튼 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 및 약관 정보가 작성된 블록 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 기능을 이용 가능한 페이지로 이동하는 메뉴 블록 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 중단, 가로로 순회하는 각 기능 설명 블록과 클릭을 통해 캐러셀을 수동으로 조정 가능한 텍스트 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 기능 정보 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-001-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-000-04</t>
+  </si>
+  <si>
+    <t>RQ-ID-002-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-002-03</t>
+  </si>
+  <si>
+    <t>최적 경로 안내 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-003-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 안내 시각화를 위한 제주도 지도 블록 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 및 도착지 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도를 통해 지정한 출발지 및 도착지를 조회할 수 있는 블록 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 안내 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 출발지와 도착지를 통해 경로 안내를 실시하고, 이동 경로 내 도로를 시각화해 보여주는 버튼 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 상단, 적절한 이미지 배경과 기획의도가 담긴 슬로건이 작성된 블록 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 하단, 각 주요 분석의 설명과 해당 페이지로 이동 가능한 버튼 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 메뉴 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 상세 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천된 경로를 기반으로 도로의 이름, 길이, 예상 소요시간을 정리해 보여주는 블록 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>페이지 상단, 각 기능을 이용 가능한 페이지로 이동하는 내비게이션 바 삽입
-(각 기능 적어야 함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-000-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 우측 상단, 모바일 용 내비게이션 바를 ON/OFF하는 버튼 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고 및 약관 정보가 작성된 블록 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 기능을 이용 가능한 페이지로 이동하는 메뉴 블록 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 중단, 가로로 순회하는 각 기능 설명 블록과 클릭을 통해 캐러셀을 수동으로 조정 가능한 텍스트 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐러셀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요 기능 정보 섹션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-001-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-000-04</t>
-  </si>
-  <si>
-    <t>RQ-ID-002-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-002-03</t>
-  </si>
-  <si>
-    <t>최적 경로 안내 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-003-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경로 안내 시각화를 위한 제주도 지도 블록 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출발지 및 도착지 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도를 통해 지정한 출발지 및 도착지를 조회할 수 있는 블록 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경로 안내 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 출발지와 도착지를 통해 경로 안내를 실시하고, 이동 경로 내 도로를 시각화해 보여주는 버튼 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 상단, 적절한 이미지 배경과 기획의도가 담긴 슬로건이 작성된 블록 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 하단, 각 주요 분석의 설명과 해당 페이지로 이동 가능한 버튼 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 메뉴 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경로 상세 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천된 경로를 기반으로 도로의 이름, 길이, 예상 소요시간을 정리해 보여주는 블록 삽입</t>
+(혼잡지수 분석, 안전지수 분석, 최적 경로 안내)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +645,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -704,26 +704,26 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -754,27 +754,27 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -785,38 +785,38 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -824,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -838,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -852,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.3">
